--- a/modules/log/Dias.xlsx
+++ b/modules/log/Dias.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -622,9 +622,185 @@
         <v>14</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Dias</v>
+      </c>
+      <c r="B6" t="str">
+        <v>19409</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Абдукадыров</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Сайрамская</v>
+      </c>
+      <c r="E6" t="str">
+        <v>141</v>
+      </c>
+      <c r="F6" t="str">
+        <v>80604</v>
+      </c>
+      <c r="G6" t="str">
+        <v>1</v>
+      </c>
+      <c r="H6" t="str">
+        <v>104</v>
+      </c>
+      <c r="I6" t="str">
+        <v>103</v>
+      </c>
+      <c r="J6" t="str">
+        <v>2025</v>
+      </c>
+      <c r="K6" t="str">
+        <v>6</v>
+      </c>
+      <c r="L6" t="str">
+        <v>2</v>
+      </c>
+      <c r="M6" t="str">
+        <v>12</v>
+      </c>
+      <c r="N6" t="str">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Dias</v>
+      </c>
+      <c r="B7" t="str">
+        <v>25850</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Эргешов Олимжон</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Курбаналиева</v>
+      </c>
+      <c r="E7" t="str">
+        <v>13а</v>
+      </c>
+      <c r="F7" t="str">
+        <v>77487</v>
+      </c>
+      <c r="G7" t="str">
+        <v>200</v>
+      </c>
+      <c r="H7" t="str">
+        <v>220</v>
+      </c>
+      <c r="I7" t="str">
+        <v>20</v>
+      </c>
+      <c r="J7" t="str">
+        <v>2025</v>
+      </c>
+      <c r="K7" t="str">
+        <v>6</v>
+      </c>
+      <c r="L7" t="str">
+        <v>4</v>
+      </c>
+      <c r="M7" t="str">
+        <v>13</v>
+      </c>
+      <c r="N7" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Dias</v>
+      </c>
+      <c r="B8" t="str">
+        <v>25866</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Нурметов Махмут</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Курбаналиева</v>
+      </c>
+      <c r="E8" t="str">
+        <v>б/н</v>
+      </c>
+      <c r="F8" t="str">
+        <v>76804</v>
+      </c>
+      <c r="G8" t="str">
+        <v>185</v>
+      </c>
+      <c r="H8" t="str">
+        <v>200</v>
+      </c>
+      <c r="I8" t="str">
+        <v>15</v>
+      </c>
+      <c r="J8" t="str">
+        <v>2025</v>
+      </c>
+      <c r="K8" t="str">
+        <v>6</v>
+      </c>
+      <c r="L8" t="str">
+        <v>4</v>
+      </c>
+      <c r="M8" t="str">
+        <v>14</v>
+      </c>
+      <c r="N8" t="str">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Dias</v>
+      </c>
+      <c r="B9" t="str">
+        <v>37984</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Шералиов Шухрат</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Курбаналиев(Манкент)</v>
+      </c>
+      <c r="E9" t="str">
+        <v>б/н</v>
+      </c>
+      <c r="F9" t="str">
+        <v>61124</v>
+      </c>
+      <c r="G9" t="str">
+        <v>1800</v>
+      </c>
+      <c r="H9" t="str">
+        <v>1815</v>
+      </c>
+      <c r="I9" t="str">
+        <v>15</v>
+      </c>
+      <c r="J9" t="str">
+        <v>2025</v>
+      </c>
+      <c r="K9" t="str">
+        <v>6</v>
+      </c>
+      <c r="L9" t="str">
+        <v>5</v>
+      </c>
+      <c r="M9" t="str">
+        <v>13</v>
+      </c>
+      <c r="N9" t="str">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N9"/>
   </ignoredErrors>
 </worksheet>
 </file>